--- a/nodes_source_analyses/buildings/buildings_lighting_standard_fluorescent_electricity.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_lighting_standard_fluorescent_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -34,8 +39,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -304,9 +312,6 @@
     <t>buildings_lighting_standard_fluorescent_electricity.converter.ad</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>free_co2_factor</t>
   </si>
   <si>
@@ -347,6 +352,29 @@
   </si>
   <si>
     <t>http://refman.et-model.com/publications/1894</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>rake import:node NODE="nodename"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> the button to update the node attributes on ETSource. 
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -354,8 +382,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -467,11 +495,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -487,6 +510,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1096,7 +1125,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1107,7 +1136,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1144,7 +1173,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1161,25 +1190,25 @@
     <xf numFmtId="1" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1206,33 +1235,33 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,80 +1548,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1971,7 +1935,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
@@ -2046,7 +2010,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2481,26 +2445,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="89" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
     <col min="3" max="3" width="36" style="89" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="89"/>
+    <col min="4" max="16384" width="10.7109375" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="87" customFormat="1"/>
-    <row r="2" spans="2:3" s="87" customFormat="1" ht="20">
+    <row r="1" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" s="87" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="87" customFormat="1"/>
-    <row r="4" spans="2:3" s="87" customFormat="1">
+    <row r="3" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="87" customFormat="1">
+    <row r="5" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>68</v>
       </c>
@@ -2516,7 +2480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="87" customFormat="1">
+    <row r="6" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>69</v>
       </c>
@@ -2524,18 +2488,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="87" customFormat="1"/>
-    <row r="8" spans="2:3" s="87" customFormat="1">
+    <row r="7" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="84" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="88"/>
     </row>
-    <row r="9" spans="2:3" s="87" customFormat="1">
+    <row r="9" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="85"/>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="2:3" s="87" customFormat="1">
+    <row r="10" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="85" t="s">
         <v>71</v>
       </c>
@@ -2543,29 +2507,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="87" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:3" s="87" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="85"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="87" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:3" s="87" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="85"/>
       <c r="C12" s="91" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="87" customFormat="1">
+    <row r="13" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="85"/>
       <c r="C13" s="89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:3" s="87" customFormat="1">
+    <row r="14" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="85"/>
       <c r="C14" s="89"/>
     </row>
-    <row r="15" spans="2:3" s="87" customFormat="1">
+    <row r="15" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
@@ -2573,43 +2537,43 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:3" s="87" customFormat="1">
+    <row r="16" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="85"/>
       <c r="C16" s="93" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="87" customFormat="1">
+    <row r="17" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="85"/>
       <c r="C17" s="94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="87" customFormat="1">
+    <row r="18" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="85"/>
       <c r="C18" s="95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="87" customFormat="1">
+    <row r="19" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="96"/>
       <c r="C19" s="97" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="87" customFormat="1">
+    <row r="20" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="96"/>
       <c r="C20" s="98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="87" customFormat="1">
+    <row r="21" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="96"/>
       <c r="C21" s="99" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="87" customFormat="1">
+    <row r="22" spans="2:3" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="96"/>
       <c r="C22" s="100" t="s">
         <v>83</v>
@@ -2618,75 +2582,70 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.375" style="19" customWidth="1"/>
-    <col min="4" max="5" width="14.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="2.125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="28.375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="2.125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="19" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="19"/>
+    <col min="1" max="2" width="2.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="113" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C2" s="114"/>
       <c r="D2" s="114"/>
       <c r="E2" s="115"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="116"/>
       <c r="C3" s="117"/>
       <c r="D3" s="117"/>
       <c r="E3" s="118"/>
       <c r="F3" s="79"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="116"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
       <c r="E4" s="118"/>
       <c r="F4" s="79"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="119"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
       <c r="E5" s="121"/>
       <c r="F5" s="79"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2697,7 +2656,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="2:11" s="10" customFormat="1">
+    <row r="8" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -2718,7 +2677,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="2:11" s="10" customFormat="1">
+    <row r="9" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="12"/>
@@ -2729,7 +2688,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:11" s="10" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>60</v>
@@ -2742,7 +2701,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
         <v>53</v>
@@ -2765,7 +2724,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
       <c r="C12" s="69"/>
       <c r="D12" s="70"/>
@@ -2777,7 +2736,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="13" t="s">
         <v>61</v>
@@ -2791,7 +2750,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="39" t="s">
         <v>54</v>
@@ -2814,7 +2773,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
       <c r="C15" s="39" t="s">
         <v>55</v>
@@ -2837,7 +2796,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70"/>
@@ -2849,7 +2808,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24"/>
       <c r="C17" s="13" t="s">
         <v>4</v>
@@ -2863,7 +2822,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="C18" s="39" t="s">
         <v>52</v>
@@ -2886,10 +2845,10 @@
       <c r="J18" s="25"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="C19" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>2</v>
@@ -2906,7 +2865,7 @@
       <c r="J19" s="25"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="65"/>
       <c r="D20" s="66"/>
@@ -2924,43 +2883,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2975,30 +2897,30 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="2.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="2.125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="2.125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="19" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="19" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="19" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="2.125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="27.625" style="19" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="19"/>
+    <col min="1" max="2" width="2.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="19" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3017,7 +2939,7 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
     </row>
-    <row r="3" spans="2:18" s="10" customFormat="1">
+    <row r="3" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="102" t="s">
         <v>66</v>
@@ -3054,7 +2976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="10" customFormat="1">
+    <row r="4" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3073,7 +2995,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" s="10" customFormat="1" ht="16" thickBot="1">
+    <row r="5" spans="2:18" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="13" t="s">
         <v>60</v>
@@ -3094,7 +3016,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="29"/>
     </row>
-    <row r="6" spans="2:18" s="10" customFormat="1" ht="16" thickBot="1">
+    <row r="6" spans="2:18" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="27" t="s">
         <v>15</v>
@@ -3132,7 +3054,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="29"/>
     </row>
-    <row r="7" spans="2:18" ht="16" thickBot="1">
+    <row r="7" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="29" t="s">
         <v>30</v>
@@ -3166,7 +3088,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
       <c r="C8" s="29"/>
       <c r="D8" s="81"/>
@@ -3185,7 +3107,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
       <c r="C9" s="13" t="s">
         <v>4</v>
@@ -3205,7 +3127,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="29"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24"/>
       <c r="C10" s="26" t="s">
         <v>28</v>
@@ -3245,7 +3167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3264,7 +3186,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="29"/>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
       <c r="C12" s="13" t="s">
         <v>63</v>
@@ -3285,7 +3207,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="29"/>
     </row>
-    <row r="13" spans="2:18" ht="16" thickBot="1">
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="26" t="s">
         <v>34</v>
@@ -3325,7 +3247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="36" t="s">
         <v>5</v>
@@ -3356,7 +3278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="24"/>
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
@@ -3380,11 +3302,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3399,22 +3316,22 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="44" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="43" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="43" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="53.25" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="44"/>
+    <col min="1" max="1" width="3.42578125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="44" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -3425,7 +3342,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="46"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="48"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3438,14 +3355,14 @@
       <c r="I3" s="5"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="2:10" s="42" customFormat="1">
+    <row r="4" spans="2:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="48"/>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="103"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -3460,19 +3377,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="104" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="48"/>
       <c r="C6" s="2"/>
       <c r="D6" s="42"/>
@@ -3483,7 +3400,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="48"/>
       <c r="C7" s="50"/>
       <c r="D7" s="44" t="s">
@@ -3500,13 +3417,13 @@
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="107" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="48"/>
       <c r="C8" s="51" t="s">
         <v>32</v>
@@ -3514,7 +3431,7 @@
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="48"/>
       <c r="C9" s="52" t="s">
         <v>15</v>
@@ -3522,19 +3439,19 @@
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="48"/>
       <c r="C10" s="42"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="48"/>
       <c r="C11" s="42"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="48"/>
       <c r="C12" s="51" t="s">
         <v>32</v>
@@ -3553,13 +3470,13 @@
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="48"/>
       <c r="C13" s="52" t="s">
         <v>15</v>
@@ -3567,19 +3484,19 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="48"/>
       <c r="C14" s="50"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="48"/>
       <c r="C15" s="50"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="51" t="s">
         <v>32</v>
@@ -3598,7 +3515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="48"/>
       <c r="C17" s="52" t="s">
         <v>15</v>
@@ -3606,19 +3523,19 @@
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="48"/>
       <c r="C18" s="50"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="48"/>
       <c r="C19" s="50"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="48"/>
       <c r="C20" s="51" t="s">
         <v>32</v>
@@ -3637,13 +3554,13 @@
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="48"/>
       <c r="C21" s="52" t="s">
         <v>15</v>
@@ -3651,19 +3568,19 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="42"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="50"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
       <c r="C24" s="53" t="s">
         <v>33</v>
@@ -3684,7 +3601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="48"/>
       <c r="C25" s="53"/>
       <c r="D25" s="50"/>
@@ -3695,7 +3612,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="48"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -3706,7 +3623,7 @@
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="48"/>
       <c r="C27" s="53" t="s">
         <v>35</v>
@@ -3725,7 +3642,7 @@
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="54" t="s">
         <v>44</v>
@@ -3743,11 +3660,6 @@
   <ignoredErrors>
     <ignoredError sqref="F12:G12 F27:G27 F7:G7 F20:G20" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3762,21 +3674,21 @@
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="56" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="56" customWidth="1"/>
-    <col min="6" max="9" width="10.625" style="56"/>
-    <col min="10" max="10" width="14.75" style="56" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="56" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="56"/>
+    <col min="1" max="1" width="3.5703125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="56" customWidth="1"/>
+    <col min="6" max="9" width="10.7109375" style="56"/>
+    <col min="10" max="10" width="14.7109375" style="56" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="56" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -3788,7 +3700,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="40"/>
       <c r="C3" s="4" t="s">
@@ -3805,7 +3717,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="2"/>
@@ -3818,7 +3730,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
         <v>38</v>
@@ -3832,7 +3744,7 @@
       <c r="J5" s="61"/>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
       <c r="D6" s="61" t="s">
@@ -3846,7 +3758,7 @@
       <c r="J6" s="61"/>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -3858,7 +3770,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="62"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -3870,7 +3782,7 @@
       <c r="J8" s="61"/>
       <c r="K8" s="62"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -3882,7 +3794,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -3894,7 +3806,7 @@
       <c r="J10" s="61"/>
       <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -3906,7 +3818,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -3918,7 +3830,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="60"/>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -3930,7 +3842,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -3942,7 +3854,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -3954,7 +3866,7 @@
       <c r="J15" s="61"/>
       <c r="K15" s="62"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -3966,7 +3878,7 @@
       <c r="J16" s="61"/>
       <c r="K16" s="62"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="60"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -3978,7 +3890,7 @@
       <c r="J17" s="61"/>
       <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
       <c r="D18" s="105">
@@ -3992,7 +3904,7 @@
       <c r="J18" s="61"/>
       <c r="K18" s="62"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -4004,7 +3916,7 @@
       <c r="J19" s="61"/>
       <c r="K19" s="62"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
@@ -4016,7 +3928,7 @@
       <c r="J20" s="61"/>
       <c r="K20" s="62"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61" t="s">
@@ -4030,7 +3942,7 @@
       <c r="J21" s="61"/>
       <c r="K21" s="62"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="60"/>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -4042,7 +3954,7 @@
       <c r="J22" s="61"/>
       <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="60"/>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -4054,7 +3966,7 @@
       <c r="J23" s="61"/>
       <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -4066,7 +3978,7 @@
       <c r="J24" s="61"/>
       <c r="K24" s="62"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -4078,7 +3990,7 @@
       <c r="J25" s="61"/>
       <c r="K25" s="62"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="60"/>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
@@ -4090,7 +4002,7 @@
       <c r="J26" s="61"/>
       <c r="K26" s="62"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="60"/>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
@@ -4102,7 +4014,7 @@
       <c r="J27" s="61"/>
       <c r="K27" s="62"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
@@ -4114,7 +4026,7 @@
       <c r="J28" s="61"/>
       <c r="K28" s="62"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="60"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -4126,7 +4038,7 @@
       <c r="J29" s="61"/>
       <c r="K29" s="62"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="60"/>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
@@ -4138,7 +4050,7 @@
       <c r="J30" s="61"/>
       <c r="K30" s="62"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="60"/>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -4150,7 +4062,7 @@
       <c r="J31" s="61"/>
       <c r="K31" s="62"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="60"/>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
@@ -4162,7 +4074,7 @@
       <c r="J32" s="61"/>
       <c r="K32" s="62"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="60"/>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
@@ -4174,7 +4086,7 @@
       <c r="J33" s="61"/>
       <c r="K33" s="62"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="60"/>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
@@ -4186,7 +4098,7 @@
       <c r="J34" s="61"/>
       <c r="K34" s="62"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
       <c r="D35" s="61">
@@ -4200,7 +4112,7 @@
       <c r="J35" s="61"/>
       <c r="K35" s="62"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="60"/>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
@@ -4212,7 +4124,7 @@
       <c r="J36" s="61"/>
       <c r="K36" s="62"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="60"/>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
@@ -4224,7 +4136,7 @@
       <c r="J37" s="61"/>
       <c r="K37" s="62"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="60"/>
       <c r="C38" s="61"/>
       <c r="D38" s="61" t="s">
@@ -4238,7 +4150,7 @@
       <c r="J38" s="61"/>
       <c r="K38" s="62"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="60"/>
       <c r="C39" s="61"/>
       <c r="D39" s="61"/>
@@ -4250,7 +4162,7 @@
       <c r="J39" s="61"/>
       <c r="K39" s="62"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="60"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
@@ -4262,7 +4174,7 @@
       <c r="J40" s="61"/>
       <c r="K40" s="62"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="60"/>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
@@ -4274,7 +4186,7 @@
       <c r="J41" s="61"/>
       <c r="K41" s="62"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="60"/>
       <c r="C42" s="61"/>
       <c r="D42" s="61"/>
@@ -4286,7 +4198,7 @@
       <c r="J42" s="61"/>
       <c r="K42" s="62"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="60"/>
       <c r="C43" s="61"/>
       <c r="D43" s="61"/>
@@ -4298,7 +4210,7 @@
       <c r="J43" s="61"/>
       <c r="K43" s="62"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="60"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
@@ -4310,7 +4222,7 @@
       <c r="J44" s="61"/>
       <c r="K44" s="62"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="60"/>
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
@@ -4322,7 +4234,7 @@
       <c r="J45" s="61"/>
       <c r="K45" s="62"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="60"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -4334,7 +4246,7 @@
       <c r="J46" s="61"/>
       <c r="K46" s="62"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="60"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
@@ -4346,7 +4258,7 @@
       <c r="J47" s="61"/>
       <c r="K47" s="62"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="60"/>
       <c r="C48" s="61"/>
       <c r="D48" s="61"/>
@@ -4358,7 +4270,7 @@
       <c r="J48" s="61"/>
       <c r="K48" s="62"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="60"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
@@ -4370,7 +4282,7 @@
       <c r="J49" s="61"/>
       <c r="K49" s="62"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="60"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
@@ -4382,7 +4294,7 @@
       <c r="J50" s="61"/>
       <c r="K50" s="62"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="60"/>
       <c r="C51" s="61"/>
       <c r="D51" s="61">
@@ -4396,7 +4308,7 @@
       <c r="J51" s="61"/>
       <c r="K51" s="62"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="60"/>
       <c r="C52" s="61"/>
       <c r="D52" s="61"/>
@@ -4408,7 +4320,7 @@
       <c r="J52" s="61"/>
       <c r="K52" s="62"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="60"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
@@ -4420,7 +4332,7 @@
       <c r="J53" s="61"/>
       <c r="K53" s="62"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="60"/>
       <c r="C54" s="61"/>
       <c r="D54" s="61" t="s">
@@ -4434,7 +4346,7 @@
       <c r="J54" s="61"/>
       <c r="K54" s="62"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="60"/>
       <c r="C55" s="61"/>
       <c r="D55" s="61"/>
@@ -4446,7 +4358,7 @@
       <c r="J55" s="61"/>
       <c r="K55" s="62"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="60"/>
       <c r="C56" s="61"/>
       <c r="D56" s="61"/>
@@ -4458,7 +4370,7 @@
       <c r="J56" s="61"/>
       <c r="K56" s="62"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="60"/>
       <c r="C57" s="61"/>
       <c r="D57" s="61"/>
@@ -4470,7 +4382,7 @@
       <c r="J57" s="61"/>
       <c r="K57" s="62"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
@@ -4482,7 +4394,7 @@
       <c r="J58" s="61"/>
       <c r="K58" s="62"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="60"/>
       <c r="C59" s="61"/>
       <c r="D59" s="61"/>
@@ -4494,7 +4406,7 @@
       <c r="J59" s="61"/>
       <c r="K59" s="62"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="60"/>
       <c r="C60" s="61"/>
       <c r="D60" s="61"/>
@@ -4506,7 +4418,7 @@
       <c r="J60" s="61"/>
       <c r="K60" s="62"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="60"/>
       <c r="C61" s="61"/>
       <c r="D61" s="61"/>
@@ -4518,7 +4430,7 @@
       <c r="J61" s="61"/>
       <c r="K61" s="62"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="61"/>
@@ -4530,7 +4442,7 @@
       <c r="J62" s="61"/>
       <c r="K62" s="62"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="60"/>
       <c r="C63" s="61"/>
       <c r="D63" s="61"/>
@@ -4542,7 +4454,7 @@
       <c r="J63" s="61"/>
       <c r="K63" s="62"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="60"/>
       <c r="C64" s="61"/>
       <c r="D64" s="61"/>
@@ -4554,7 +4466,7 @@
       <c r="J64" s="61"/>
       <c r="K64" s="62"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="60"/>
       <c r="C65" s="61"/>
       <c r="D65" s="61"/>
@@ -4566,7 +4478,7 @@
       <c r="J65" s="61"/>
       <c r="K65" s="62"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="61">
@@ -4580,7 +4492,7 @@
       <c r="J66" s="61"/>
       <c r="K66" s="62"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="60"/>
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
@@ -4592,7 +4504,7 @@
       <c r="J67" s="61"/>
       <c r="K67" s="62"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="60"/>
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
@@ -4604,7 +4516,7 @@
       <c r="J68" s="61"/>
       <c r="K68" s="62"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="60"/>
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
@@ -4616,7 +4528,7 @@
       <c r="J69" s="61"/>
       <c r="K69" s="62"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="60"/>
       <c r="C70" s="61" t="s">
         <v>58</v>
@@ -4630,7 +4542,7 @@
       <c r="J70" s="61"/>
       <c r="K70" s="62"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="60"/>
       <c r="C71" s="61"/>
       <c r="D71" s="61"/>
@@ -4642,14 +4554,14 @@
       <c r="J71" s="61"/>
       <c r="K71" s="62"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="60"/>
       <c r="C72" s="61"/>
       <c r="D72" s="61">
         <v>20000</v>
       </c>
       <c r="E72" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="61"/>
       <c r="G72" s="61"/>
@@ -4658,7 +4570,7 @@
       <c r="J72" s="61"/>
       <c r="K72" s="62"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="60"/>
       <c r="C73" s="61"/>
       <c r="D73" s="61"/>
@@ -4670,7 +4582,7 @@
       <c r="J73" s="61"/>
       <c r="K73" s="62"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="60"/>
       <c r="C74" s="61"/>
       <c r="D74" s="61"/>
@@ -4682,7 +4594,7 @@
       <c r="J74" s="61"/>
       <c r="K74" s="62"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="60"/>
       <c r="C75" s="61"/>
       <c r="D75" s="61"/>
@@ -4694,7 +4606,7 @@
       <c r="J75" s="61"/>
       <c r="K75" s="62"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="60"/>
       <c r="C76" s="61"/>
       <c r="D76" s="61"/>
@@ -4706,7 +4618,7 @@
       <c r="J76" s="61"/>
       <c r="K76" s="62"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="60"/>
       <c r="C77" s="61"/>
       <c r="D77" s="61"/>
@@ -4718,7 +4630,7 @@
       <c r="J77" s="61"/>
       <c r="K77" s="62"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="60"/>
       <c r="C78" s="61"/>
       <c r="D78" s="61"/>
@@ -4730,7 +4642,7 @@
       <c r="J78" s="61"/>
       <c r="K78" s="62"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="60"/>
       <c r="C79" s="61"/>
       <c r="D79" s="61"/>
@@ -4742,7 +4654,7 @@
       <c r="J79" s="61"/>
       <c r="K79" s="62"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="60"/>
       <c r="C80" s="61"/>
       <c r="D80" s="61"/>
@@ -4754,7 +4666,7 @@
       <c r="J80" s="61"/>
       <c r="K80" s="62"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="60"/>
       <c r="C81" s="61"/>
       <c r="D81" s="61"/>
@@ -4766,7 +4678,7 @@
       <c r="J81" s="61"/>
       <c r="K81" s="62"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="60"/>
       <c r="C82" s="61"/>
       <c r="D82" s="61"/>
@@ -4778,7 +4690,7 @@
       <c r="J82" s="61"/>
       <c r="K82" s="62"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="60"/>
       <c r="C83" s="61"/>
       <c r="D83" s="61"/>
@@ -4790,7 +4702,7 @@
       <c r="J83" s="61"/>
       <c r="K83" s="62"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="60"/>
       <c r="C84" s="61"/>
       <c r="D84" s="61"/>
@@ -4802,7 +4714,7 @@
       <c r="J84" s="61"/>
       <c r="K84" s="62"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="60"/>
       <c r="C85" s="106" t="s">
         <v>22</v>
@@ -4816,10 +4728,10 @@
       <c r="J85" s="61"/>
       <c r="K85" s="62"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="60"/>
       <c r="C86" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="61"/>
       <c r="E86" s="61"/>
@@ -4830,7 +4742,7 @@
       <c r="J86" s="61"/>
       <c r="K86" s="62"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="60"/>
       <c r="C87" s="61"/>
       <c r="D87" s="61"/>
@@ -4842,14 +4754,14 @@
       <c r="J87" s="61"/>
       <c r="K87" s="62"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="60"/>
       <c r="C88" s="61"/>
       <c r="D88" s="61">
         <v>20000</v>
       </c>
       <c r="E88" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F88" s="61"/>
       <c r="G88" s="61"/>
@@ -4858,7 +4770,7 @@
       <c r="J88" s="61"/>
       <c r="K88" s="62"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="60"/>
       <c r="C89" s="61"/>
       <c r="D89" s="61"/>
@@ -4870,7 +4782,7 @@
       <c r="J89" s="61"/>
       <c r="K89" s="62"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="60"/>
       <c r="C90" s="61"/>
       <c r="D90" s="61"/>
@@ -4882,7 +4794,7 @@
       <c r="J90" s="61"/>
       <c r="K90" s="62"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="60"/>
       <c r="C91" s="106" t="s">
         <v>37</v>
@@ -4896,7 +4808,7 @@
       <c r="J91" s="61"/>
       <c r="K91" s="62"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="60"/>
       <c r="C92" s="61"/>
       <c r="D92" s="61"/>
@@ -4908,7 +4820,7 @@
       <c r="J92" s="61"/>
       <c r="K92" s="62"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="60"/>
       <c r="C93" s="61"/>
       <c r="D93" s="61"/>
@@ -4920,14 +4832,14 @@
       <c r="J93" s="61"/>
       <c r="K93" s="62"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="60"/>
       <c r="C94" s="61"/>
       <c r="D94" s="61">
         <v>20000</v>
       </c>
       <c r="E94" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F94" s="61"/>
       <c r="G94" s="61"/>
@@ -4936,7 +4848,7 @@
       <c r="J94" s="61"/>
       <c r="K94" s="62"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="60"/>
       <c r="C95" s="61"/>
       <c r="D95" s="61"/>
@@ -4948,7 +4860,7 @@
       <c r="J95" s="61"/>
       <c r="K95" s="62"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="60"/>
       <c r="C96" s="61"/>
       <c r="D96" s="61"/>
@@ -4960,7 +4872,7 @@
       <c r="J96" s="61"/>
       <c r="K96" s="62"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="60"/>
       <c r="C97" s="61"/>
       <c r="D97" s="61"/>
@@ -4972,7 +4884,7 @@
       <c r="J97" s="61"/>
       <c r="K97" s="62"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="60"/>
       <c r="C98" s="61"/>
       <c r="D98" s="61"/>
@@ -4984,7 +4896,7 @@
       <c r="J98" s="61"/>
       <c r="K98" s="62"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="60"/>
       <c r="C99" s="61"/>
       <c r="D99" s="61"/>
@@ -4996,7 +4908,7 @@
       <c r="J99" s="61"/>
       <c r="K99" s="62"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="60"/>
       <c r="C100" s="106" t="s">
         <v>21</v>
@@ -5010,10 +4922,10 @@
       <c r="J100" s="61"/>
       <c r="K100" s="62"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="60"/>
       <c r="C101" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D101" s="61"/>
       <c r="E101" s="61"/>
@@ -5024,7 +4936,7 @@
       <c r="J101" s="61"/>
       <c r="K101" s="62"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="60"/>
       <c r="C102" s="61"/>
       <c r="D102" s="61"/>
@@ -5036,7 +4948,7 @@
       <c r="J102" s="61"/>
       <c r="K102" s="62"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="60"/>
       <c r="C103" s="61"/>
       <c r="D103" s="61"/>
@@ -5048,7 +4960,7 @@
       <c r="J103" s="61"/>
       <c r="K103" s="62"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="60"/>
       <c r="C104" s="61"/>
       <c r="D104" s="61"/>
@@ -5060,14 +4972,14 @@
       <c r="J104" s="61"/>
       <c r="K104" s="62"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="60"/>
       <c r="C105" s="61"/>
       <c r="D105" s="61">
         <v>20000</v>
       </c>
       <c r="E105" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F105" s="61"/>
       <c r="G105" s="61"/>
@@ -5076,7 +4988,7 @@
       <c r="J105" s="61"/>
       <c r="K105" s="62"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="60"/>
       <c r="C106" s="61"/>
       <c r="D106" s="61"/>
@@ -5088,7 +5000,7 @@
       <c r="J106" s="61"/>
       <c r="K106" s="62"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="60"/>
       <c r="C107" s="61"/>
       <c r="D107" s="61"/>
@@ -5100,7 +5012,7 @@
       <c r="J107" s="61"/>
       <c r="K107" s="62"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="60"/>
       <c r="C108" s="61"/>
       <c r="D108" s="61"/>
@@ -5112,10 +5024,10 @@
       <c r="J108" s="61"/>
       <c r="K108" s="62"/>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="60"/>
       <c r="C109" s="106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="106"/>
       <c r="E109" s="106"/>
@@ -5126,10 +5038,10 @@
       <c r="J109" s="106"/>
       <c r="K109" s="110"/>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="60"/>
       <c r="C110" s="106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D110" s="106"/>
       <c r="E110" s="106"/>
@@ -5140,7 +5052,7 @@
       <c r="J110" s="106"/>
       <c r="K110" s="110"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="60"/>
       <c r="C111" s="106"/>
       <c r="D111" s="106"/>
@@ -5152,7 +5064,7 @@
       <c r="J111" s="106"/>
       <c r="K111" s="110"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="60"/>
       <c r="C112" s="106"/>
       <c r="D112" s="106"/>
@@ -5164,7 +5076,7 @@
       <c r="J112" s="106"/>
       <c r="K112" s="110"/>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="60"/>
       <c r="C113" s="106"/>
       <c r="D113" s="106"/>
@@ -5176,14 +5088,14 @@
       <c r="J113" s="106"/>
       <c r="K113" s="110"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="60"/>
       <c r="C114" s="106"/>
       <c r="D114" s="111">
         <v>15</v>
       </c>
       <c r="E114" s="111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F114" s="106"/>
       <c r="G114" s="106"/>
@@ -5192,7 +5104,7 @@
       <c r="J114" s="106"/>
       <c r="K114" s="110"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="60"/>
       <c r="C115" s="106"/>
       <c r="D115" s="111"/>
@@ -5204,7 +5116,7 @@
       <c r="J115" s="106"/>
       <c r="K115" s="110"/>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="60"/>
       <c r="C116" s="106"/>
       <c r="D116" s="111"/>
@@ -5216,7 +5128,7 @@
       <c r="J116" s="106"/>
       <c r="K116" s="110"/>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="60"/>
       <c r="C117" s="106"/>
       <c r="D117" s="111"/>
@@ -5228,14 +5140,14 @@
       <c r="J117" s="106"/>
       <c r="K117" s="110"/>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="60"/>
       <c r="C118" s="106"/>
       <c r="D118" s="111">
         <v>65</v>
       </c>
       <c r="E118" s="111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F118" s="106"/>
       <c r="G118" s="106"/>
@@ -5244,14 +5156,14 @@
       <c r="J118" s="106"/>
       <c r="K118" s="110"/>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="60"/>
       <c r="C119" s="106"/>
       <c r="D119" s="111">
         <v>50.33</v>
       </c>
       <c r="E119" s="111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F119" s="106"/>
       <c r="G119" s="106"/>
@@ -5260,7 +5172,7 @@
       <c r="J119" s="106"/>
       <c r="K119" s="110"/>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="60"/>
       <c r="C120" s="106"/>
       <c r="D120" s="106"/>
@@ -5276,10 +5188,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>